--- a/data/trans_orig/P34C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34C1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{315C662F-1940-4A93-B029-C054E25CA7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D46FE2C-A40D-46B5-BAAE-18B9221CC46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3979DECC-55A0-4120-932A-1E23B7510696}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{40F7B3DF-8D59-4152-A5AA-9E5BFBBE7261}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="251">
   <si>
     <t>Población según el número de días por semana que realizan alguna actividad física moderada con una duración de al menos 10 minutos en 2023 (Tasa respuesta: 41,59%)</t>
   </si>
@@ -71,694 +71,700 @@
     <t>46,85%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>41,2%</t>
   </si>
   <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
   </si>
   <si>
     <t>43,7%</t>
   </si>
   <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>9,46%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
+    <t>9,68%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>3,5%</t>
@@ -767,22 +773,19 @@
     <t>2,6%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>2,51%</t>
+    <t>3,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1197,7 +1200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FE33B4-2A26-446F-A366-6DC05552F3B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4BA0DB-658E-4FC6-8DAD-7F58BD6B7BA9}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1648,7 +1651,7 @@
         <v>68</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -1657,13 +1660,13 @@
         <v>12949</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1678,13 +1681,13 @@
         <v>143663</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>290</v>
@@ -1693,13 +1696,13 @@
         <v>181112</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>463</v>
@@ -1708,18 +1711,18 @@
         <v>324775</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="5">
         <v>7</v>
@@ -1731,13 +1734,13 @@
         <v>352887</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>544</v>
@@ -1746,13 +1749,13 @@
         <v>344527</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>897</v>
@@ -1761,13 +1764,13 @@
         <v>697414</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,13 +1785,13 @@
         <v>43194</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -1797,13 +1800,13 @@
         <v>32767</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>97</v>
@@ -1812,13 +1815,13 @@
         <v>75961</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,13 +1836,13 @@
         <v>203856</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>239</v>
@@ -1848,13 +1851,13 @@
         <v>165392</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>429</v>
@@ -1863,13 +1866,13 @@
         <v>369248</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,13 +1887,13 @@
         <v>74658</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H15" s="7">
         <v>78</v>
@@ -1899,13 +1902,13 @@
         <v>62772</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M15" s="7">
         <v>143</v>
@@ -1914,13 +1917,13 @@
         <v>137430</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,13 +1938,13 @@
         <v>195757</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H16" s="7">
         <v>225</v>
@@ -1950,13 +1953,13 @@
         <v>173586</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M16" s="7">
         <v>385</v>
@@ -1965,13 +1968,13 @@
         <v>369344</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,13 +1989,13 @@
         <v>95032</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -2001,13 +2004,13 @@
         <v>89687</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M17" s="7">
         <v>187</v>
@@ -2016,10 +2019,10 @@
         <v>184719</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>125</v>
@@ -2055,10 +2058,10 @@
         <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -2067,13 +2070,13 @@
         <v>50042</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,13 +2091,13 @@
         <v>998005</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7">
         <v>1284</v>
@@ -2103,13 +2106,13 @@
         <v>886152</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M19" s="7">
         <v>2195</v>
@@ -2118,18 +2121,18 @@
         <v>1884157</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="5">
         <v>7</v>
@@ -2141,13 +2144,13 @@
         <v>125121</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>216</v>
@@ -2156,13 +2159,13 @@
         <v>134063</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>362</v>
@@ -2171,13 +2174,13 @@
         <v>259183</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,13 +2195,13 @@
         <v>15226</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -2207,13 +2210,13 @@
         <v>13369</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="M21" s="7">
         <v>32</v>
@@ -2222,13 +2225,13 @@
         <v>28595</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2246,13 @@
         <v>61635</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>79</v>
@@ -2258,13 +2261,13 @@
         <v>54369</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>139</v>
@@ -2273,13 +2276,13 @@
         <v>116003</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2297,13 @@
         <v>36292</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>51</v>
@@ -2309,13 +2312,13 @@
         <v>40956</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>88</v>
@@ -2324,13 +2327,13 @@
         <v>77248</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,13 +2348,13 @@
         <v>74582</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>134</v>
@@ -2360,13 +2363,13 @@
         <v>102433</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>203</v>
@@ -2375,13 +2378,13 @@
         <v>177016</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>33</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,13 +2399,13 @@
         <v>39904</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>84</v>
@@ -2411,13 +2414,13 @@
         <v>60704</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>117</v>
@@ -2426,13 +2429,13 @@
         <v>100608</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,10 +2453,10 @@
         <v>19</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -2462,13 +2465,13 @@
         <v>14019</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -2477,13 +2480,13 @@
         <v>29100</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,13 +2501,13 @@
         <v>367842</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H27" s="7">
         <v>600</v>
@@ -2513,13 +2516,13 @@
         <v>419913</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M27" s="7">
         <v>972</v>
@@ -2528,13 +2531,13 @@
         <v>787754</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2554,13 @@
         <v>545313</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>883</v>
@@ -2566,13 +2569,13 @@
         <v>553206</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>1464</v>
@@ -2581,13 +2584,13 @@
         <v>1098519</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2605,13 @@
         <v>64309</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -2617,13 +2620,13 @@
         <v>53040</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>149</v>
@@ -2632,13 +2635,13 @@
         <v>117349</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,13 +2656,13 @@
         <v>303473</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>383</v>
@@ -2668,13 +2671,13 @@
         <v>256682</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>677</v>
@@ -2683,13 +2686,13 @@
         <v>560155</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,13 +2707,13 @@
         <v>116314</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>138</v>
@@ -2719,13 +2722,13 @@
         <v>115494</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M31" s="7">
         <v>246</v>
@@ -2755,13 +2758,13 @@
         <v>284398</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>407</v>
@@ -2770,13 +2773,13 @@
         <v>304377</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>653</v>
@@ -2785,13 +2788,13 @@
         <v>588775</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,13 +2809,13 @@
         <v>142860</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>237</v>
       </c>
       <c r="H33" s="7">
         <v>226</v>
@@ -2821,13 +2824,13 @@
         <v>165130</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="M33" s="7">
         <v>336</v>
@@ -2836,13 +2839,13 @@
         <v>307990</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,13 +2860,13 @@
         <v>52842</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H34" s="7">
         <v>56</v>
@@ -2872,13 +2875,13 @@
         <v>39250</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M34" s="7">
         <v>105</v>
@@ -2887,13 +2890,13 @@
         <v>92092</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2911,13 @@
         <v>1509509</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H35" s="7">
         <v>2174</v>
@@ -2923,13 +2926,13 @@
         <v>1487178</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M35" s="7">
         <v>3630</v>
@@ -2938,18 +2941,18 @@
         <v>2996686</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34C1_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D46FE2C-A40D-46B5-BAAE-18B9221CC46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3802CE8-69A2-49AD-821E-4D431F1E490D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{40F7B3DF-8D59-4152-A5AA-9E5BFBBE7261}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5AFF7377-6B19-4F1A-8482-3A71D056242C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4BA0DB-658E-4FC6-8DAD-7F58BD6B7BA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD72C08-B8BF-4C11-8EB0-BC160B92FF58}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
